--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>tanggal</t>
   </si>
@@ -32,6 +32,10 @@
   </si>
   <si>
     <t>penilaian</t>
+  </si>
+  <si>
+    <t>Kelancaran (L/TL)
+(Khusus habis Maghrib)</t>
   </si>
   <si>
     <t>Keterangan</t>
@@ -695,12 +699,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1017,10 +1024,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1029,10 +1036,11 @@
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="9" width="13.1428571428571" customWidth="1"/>
     <col min="10" max="10" width="2.71428571428571" customWidth="1"/>
-    <col min="11" max="11" width="11.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="17.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="11.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" ht="38.25" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,67 +1063,70 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="6:10">
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="8:8">
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="8:8">
       <c r="H16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>tanggal</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Paraf</t>
   </si>
   <si>
     <t>M</t>
@@ -1024,10 +1027,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1040,7 +1043,7 @@
     <col min="12" max="12" width="11.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" spans="1:12">
+    <row r="1" ht="38.25" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,64 +1072,67 @@
       <c r="L1" t="s">
         <v>7</v>
       </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="6:10">
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="8:8">
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="8:8">
       <c r="H16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -1029,18 +1029,24 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="4.14285714285714" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" customWidth="1"/>
+    <col min="5" max="5" width="7.85714285714286" customWidth="1"/>
     <col min="6" max="6" width="3.28571428571429" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="9" width="13.1428571428571" customWidth="1"/>
     <col min="10" max="10" width="2.71428571428571" customWidth="1"/>
     <col min="11" max="11" width="17.5714285714286" customWidth="1"/>
     <col min="12" max="12" width="11.8571428571429" customWidth="1"/>
+    <col min="13" max="13" width="6.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" spans="1:13">

--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -83,7 +83,8 @@
     <t>rasib</t>
   </si>
   <si>
-    <t>nggak lancar</t>
+    <t>nggak lancar
+(lupa)</t>
   </si>
   <si>
     <t>penilaian: Buat grafik web</t>
@@ -702,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +712,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1030,7 +1034,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1128,11 +1132,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="8:9">
+    <row r="14" ht="25.5" spans="8:9">
       <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>22</v>
       </c>
     </row>

--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11895" windowHeight="6540"/>
+    <workbookView windowWidth="20895" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rancang" sheetId="1" r:id="rId1"/>
+    <sheet name="Cetak" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -95,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -106,6 +107,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,6 +126,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -124,6 +148,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -131,32 +163,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +188,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -179,22 +211,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,44 +234,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +246,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -262,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +454,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,6 +511,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -509,197 +554,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,8 +1034,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1152,4 +1153,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>tanggal</t>
   </si>
@@ -89,6 +89,87 @@
   </si>
   <si>
     <t>penilaian: Buat grafik web</t>
+  </si>
+  <si>
+    <t>Mutabaah Tahfidz</t>
+  </si>
+  <si>
+    <t>Nama :</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Tangal</t>
+  </si>
+  <si>
+    <t>Juz</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Dari</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>Penilaian</t>
+  </si>
+  <si>
+    <t>Senin</t>
+  </si>
+  <si>
+    <t>Selasa</t>
+  </si>
+  <si>
+    <t>Rabu</t>
+  </si>
+  <si>
+    <t>Kamis</t>
+  </si>
+  <si>
+    <t>Jumat</t>
+  </si>
+  <si>
+    <t>Mumtaz</t>
+  </si>
+  <si>
+    <t>Nggak ada salah</t>
+  </si>
+  <si>
+    <t>Jayyid Jiddan</t>
+  </si>
+  <si>
+    <t>Salah 1 -2 kali</t>
+  </si>
+  <si>
+    <t>Jayyid</t>
+  </si>
+  <si>
+    <t>Salah 3 - 4 kali</t>
+  </si>
+  <si>
+    <t>Maqbul</t>
+  </si>
+  <si>
+    <t>Salah lebih dari 4 kali</t>
+  </si>
+  <si>
+    <t>Rasib</t>
+  </si>
+  <si>
+    <t>Nggak sampai 1 halaman</t>
+  </si>
+  <si>
+    <t>Keterangan yang bisa ditulis di Surat</t>
+  </si>
+  <si>
+    <t>Sakit</t>
+  </si>
+  <si>
+    <t>Izin</t>
   </si>
 </sst>
 </file>
@@ -101,8 +182,31 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -448,12 +552,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,154 +678,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1035,7 +1196,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1070,14 +1231,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="L1" t="s">
@@ -1137,7 +1298,7 @@
       <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1158,14 +1319,597 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.14285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85714285714286" style="1" customWidth="1"/>
+    <col min="7" max="11" width="3.71428571428571" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.14285714285714" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>tanggal</t>
   </si>
@@ -91,12 +91,15 @@
     <t>penilaian: Buat grafik web</t>
   </si>
   <si>
-    <t>Mutabaah Tahfidz</t>
+    <t>Mutabaah Tahfidz Habis Maghrib</t>
   </si>
   <si>
     <t>Nama :</t>
   </si>
   <si>
+    <t>Bulan :</t>
+  </si>
+  <si>
     <t>Hari</t>
   </si>
   <si>
@@ -161,15 +164,6 @@
   </si>
   <si>
     <t>Nggak sampai 1 halaman</t>
-  </si>
-  <si>
-    <t>Keterangan yang bisa ditulis di Surat</t>
-  </si>
-  <si>
-    <t>Sakit</t>
-  </si>
-  <si>
-    <t>Izin</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +1313,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M28"/>
+      <selection activeCell="A1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1330,8 +1324,8 @@
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.14285714285714" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.14285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85714285714286" style="1" customWidth="1"/>
     <col min="7" max="11" width="3.71428571428571" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.8571428571429" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.14285714285714" style="1" customWidth="1"/>
@@ -1355,85 +1349,85 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="4" t="s">
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
@@ -1504,36 +1498,36 @@
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="A11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="9" t="s">
@@ -1604,36 +1598,36 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="A17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="10" t="s">
@@ -1704,36 +1698,36 @@
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="A23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="10" t="s">
@@ -1803,112 +1797,212 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13" t="s">
+    <row r="29" spans="1:13">
+      <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14" t="s">
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -7,36 +7,44 @@
     <workbookView windowWidth="20895" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Rancang" sheetId="1" r:id="rId1"/>
-    <sheet name="Cetak" sheetId="2" r:id="rId2"/>
+    <sheet name="Hafalan Baru" sheetId="1" r:id="rId1"/>
+    <sheet name="Murajaah" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
-  <si>
-    <t>tanggal</t>
-  </si>
-  <si>
-    <t>juz</t>
-  </si>
-  <si>
-    <t>surat</t>
-  </si>
-  <si>
-    <t>dari ayat</t>
-  </si>
-  <si>
-    <t>ke ayat</t>
-  </si>
-  <si>
-    <t>penilaian</t>
-  </si>
-  <si>
-    <t>Kelancaran (L/TL)
-(Khusus habis Maghrib)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+  <si>
+    <t>Mutabaah Tahfidz Habis Maghrib</t>
+  </si>
+  <si>
+    <t>Nama :</t>
+  </si>
+  <si>
+    <t>Bulan :</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Tangal</t>
+  </si>
+  <si>
+    <t>Juz</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Dari</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>Penilaian</t>
   </si>
   <si>
     <t>Keterangan</t>
@@ -60,67 +68,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>mumtaz</t>
-  </si>
-  <si>
-    <t>jayyid jiddan</t>
-  </si>
-  <si>
-    <t>salah 1-2</t>
-  </si>
-  <si>
-    <t>jayyid</t>
-  </si>
-  <si>
-    <t>salah 3-4</t>
-  </si>
-  <si>
-    <t>maqbul</t>
-  </si>
-  <si>
-    <t>salah banyak</t>
-  </si>
-  <si>
-    <t>rasib</t>
-  </si>
-  <si>
-    <t>nggak lancar
-(lupa)</t>
-  </si>
-  <si>
-    <t>penilaian: Buat grafik web</t>
-  </si>
-  <si>
-    <t>Mutabaah Tahfidz Habis Maghrib</t>
-  </si>
-  <si>
-    <t>Nama :</t>
-  </si>
-  <si>
-    <t>Bulan :</t>
-  </si>
-  <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>Tangal</t>
-  </si>
-  <si>
-    <t>Juz</t>
-  </si>
-  <si>
-    <t>Surat</t>
-  </si>
-  <si>
-    <t>Dari</t>
-  </si>
-  <si>
-    <t>Ke</t>
-  </si>
-  <si>
-    <t>Penilaian</t>
-  </si>
-  <si>
     <t>Senin</t>
   </si>
   <si>
@@ -149,6 +96,9 @@
   </si>
   <si>
     <t>Salah 1 -2 kali</t>
+  </si>
+  <si>
+    <t>Februari nggak ada juziyah</t>
   </si>
   <si>
     <t>Jayyid</t>
@@ -179,7 +129,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +146,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -534,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -549,6 +506,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -660,148 +630,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,14 +797,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1151,136 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="4.14285714285714" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" customWidth="1"/>
-    <col min="5" max="5" width="7.85714285714286" customWidth="1"/>
-    <col min="6" max="6" width="3.28571428571429" customWidth="1"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="9" width="13.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="2.71428571428571" customWidth="1"/>
-    <col min="11" max="11" width="17.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="11.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="6.14285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="38.25" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="6:10">
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="8:9">
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="8:9">
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="8:9">
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" spans="8:9">
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="8:8">
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:M41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1297,7 +1141,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1314,7 +1158,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1331,40 +1175,40 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1375,26 +1219,26 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1411,7 +1255,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1428,7 +1272,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1445,7 +1289,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1462,7 +1306,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1494,7 +1338,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1511,7 +1355,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1528,7 +1372,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1545,7 +1389,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1562,7 +1406,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1594,7 +1438,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1611,7 +1455,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1628,7 +1472,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1645,7 +1489,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1662,7 +1506,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1694,7 +1538,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1711,7 +1555,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1728,7 +1572,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1745,7 +1589,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1762,7 +1606,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1794,7 +1638,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1811,7 +1655,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1828,7 +1672,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1845,7 +1689,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1862,7 +1706,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1877,71 +1721,79 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="H37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B41" s="7"/>
       <c r="C41" s="6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
+      <c r="G41" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="A12:M12"/>
@@ -1949,15 +1801,14 @@
     <mergeCell ref="A24:M24"/>
     <mergeCell ref="A30:M30"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C37:G37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C38:G38"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C39:G39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C40:G40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -1970,4 +1821,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20895" windowHeight="11850" activeTab="1"/>
+    <workbookView windowWidth="20895" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Hafalan Baru" sheetId="1" r:id="rId1"/>
-    <sheet name="Murajaah" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>Mutabaah Tahfidz Habis Maghrib</t>
   </si>
@@ -35,7 +34,19 @@
     <t>Juz</t>
   </si>
   <si>
-    <t>Surat</t>
+    <t>Halaman Baru</t>
+  </si>
+  <si>
+    <t>Penilaian</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Paraf</t>
+  </si>
+  <si>
+    <t>Murajaah Lama</t>
   </si>
   <si>
     <t>Dari</t>
@@ -44,15 +55,6 @@
     <t>Ke</t>
   </si>
   <si>
-    <t>Penilaian</t>
-  </si>
-  <si>
-    <t>Keterangan</t>
-  </si>
-  <si>
-    <t>Paraf</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -105,6 +107,9 @@
   </si>
   <si>
     <t>Salah 3 - 4 kali</t>
+  </si>
+  <si>
+    <t>Murajaah seperempat juz</t>
   </si>
   <si>
     <t>Maqbul</t>
@@ -129,7 +134,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +151,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -491,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -519,6 +532,30 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -630,168 +667,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -800,11 +846,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1121,25 +1182,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="4.14285714285714" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="5.14285714285714" customWidth="1"/>
-    <col min="6" max="6" width="3.85714285714286" customWidth="1"/>
-    <col min="7" max="11" width="3.71428571428571" customWidth="1"/>
-    <col min="12" max="12" width="11.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="6.14285714285714" customWidth="1"/>
+    <col min="4" max="5" width="7.71428571428571" customWidth="1"/>
+    <col min="6" max="10" width="3.71428571428571" customWidth="1"/>
+    <col min="11" max="11" width="11.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="6.14285714285714" customWidth="1"/>
+    <col min="13" max="13" width="15.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="6.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,686 +1216,704 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="4" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="4" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="4" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="4" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="4" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="4" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="4" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="4" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="4" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="4" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="4" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="4" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="4" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="4" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="4" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="4" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="6" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="I37" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="6" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="H37" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8" t="s">
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="I38" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="6" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="H38" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="H39" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="6" t="s">
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="9"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A30:M30"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A30:N30"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C37:F37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C38:F38"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C40:F40"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>Mutabaah Tahfidz Habis Maghrib</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Salah lebih dari 4 kali</t>
+  </si>
+  <si>
+    <t>Murajaah dimulai dari juz 30</t>
   </si>
   <si>
     <t>Rasib</t>
@@ -1185,7 +1188,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N1"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1862,7 +1865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:8">
       <c r="A40" s="9" t="s">
         <v>32</v>
       </c>
@@ -1873,14 +1876,17 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>

--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -815,7 +815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,7 +862,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1188,7 +1194,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="A12" sqref="A12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1199,7 +1205,7 @@
     <col min="6" max="10" width="3.71428571428571" customWidth="1"/>
     <col min="11" max="11" width="11.8571428571429" customWidth="1"/>
     <col min="12" max="12" width="6.14285714285714" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="10.4285714285714" customWidth="1"/>
     <col min="14" max="14" width="6.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1272,7 +1278,7 @@
       <c r="M5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1303,8 +1309,8 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
@@ -1321,8 +1327,8 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
@@ -1339,8 +1345,8 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
@@ -1357,8 +1363,8 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
@@ -1375,8 +1381,8 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
@@ -1393,8 +1399,8 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="8"/>
@@ -1427,8 +1433,8 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="7" t="s">
@@ -1445,8 +1451,8 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
@@ -1463,8 +1469,8 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
@@ -1481,8 +1487,8 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="7" t="s">
@@ -1499,8 +1505,8 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8"/>
@@ -1533,8 +1539,8 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
@@ -1551,8 +1557,8 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
@@ -1569,8 +1575,8 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
@@ -1587,8 +1593,8 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="7" t="s">
@@ -1605,8 +1611,8 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8"/>
@@ -1639,8 +1645,8 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
@@ -1657,8 +1663,8 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
@@ -1675,8 +1681,8 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
@@ -1693,8 +1699,8 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
@@ -1711,8 +1717,8 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="8"/>
@@ -1745,8 +1751,8 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
@@ -1763,8 +1769,8 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
@@ -1781,8 +1787,8 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
@@ -1799,8 +1805,8 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="7" t="s">
@@ -1817,8 +1823,8 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="9" t="s">

--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>Mutabaah Tahfidz Habis Maghrib</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Penilaian</t>
-  </si>
-  <si>
-    <t>Keterangan</t>
   </si>
   <si>
     <t>Paraf</t>
@@ -862,13 +859,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1191,10 +1188,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:N12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1203,13 +1200,12 @@
     <col min="3" max="3" width="4.14285714285714" customWidth="1"/>
     <col min="4" max="5" width="7.71428571428571" customWidth="1"/>
     <col min="6" max="10" width="3.71428571428571" customWidth="1"/>
-    <col min="11" max="11" width="11.8571428571429" customWidth="1"/>
-    <col min="12" max="12" width="6.14285714285714" customWidth="1"/>
-    <col min="13" max="13" width="10.4285714285714" customWidth="1"/>
-    <col min="14" max="14" width="6.14285714285714" customWidth="1"/>
+    <col min="11" max="11" width="6.14285714285714" customWidth="1"/>
+    <col min="12" max="12" width="15.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="6.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,9 +1221,8 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1241,14 +1236,13 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1272,49 +1266,45 @@
       <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1326,13 +1316,12 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1344,13 +1333,12 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1362,13 +1350,12 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1380,13 +1367,12 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1398,11 +1384,10 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1416,11 +1401,10 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1432,13 +1416,12 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1450,13 +1433,12 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1468,13 +1450,12 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1486,13 +1467,12 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1504,11 +1484,10 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1522,11 +1501,10 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1538,13 +1516,12 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1556,13 +1533,12 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1574,13 +1550,12 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1592,13 +1567,12 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1610,11 +1584,10 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1628,11 +1601,10 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1644,13 +1616,12 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1662,13 +1633,12 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1680,13 +1650,12 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1698,13 +1667,12 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1716,11 +1684,10 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1734,11 +1701,10 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1750,13 +1716,12 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="L31" s="19"/>
       <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1768,13 +1733,12 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1786,13 +1750,12 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1804,13 +1767,12 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="L34" s="19"/>
       <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1822,91 +1784,90 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="L35" s="19"/>
       <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="H39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="H40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A1:N1"/>
+  <mergeCells count="23">
+    <mergeCell ref="A1:M1"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A18:N18"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A30:M30"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="A38:B38"/>
@@ -1923,7 +1884,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>Mutabaah Tahfidz Habis Maghrib</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Nggak sampai 1 halaman</t>
+  </si>
+  <si>
+    <t>Murajaah harian dan Murajaah Sabtu terpisah</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1194,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1202,7 +1205,7 @@
     <col min="6" max="10" width="3.71428571428571" customWidth="1"/>
     <col min="11" max="11" width="6.14285714285714" customWidth="1"/>
     <col min="12" max="12" width="15.5714285714286" customWidth="1"/>
-    <col min="13" max="13" width="6.14285714285714" customWidth="1"/>
+    <col min="13" max="13" width="8.42857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1847,7 +1850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:8">
       <c r="A41" s="9" t="s">
         <v>34</v>
       </c>
@@ -1858,6 +1861,9 @@
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="14"/>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -28,7 +28,7 @@
     <t>Hari</t>
   </si>
   <si>
-    <t>Tangal</t>
+    <t>Tanggal</t>
   </si>
   <si>
     <t>Juz</t>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
